--- a/ODCM_Admin/ToPrint/PendingClient.xlsx
+++ b/ODCM_Admin/ToPrint/PendingClient.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RCL\Desktop\ODCM\ODCM - Copy\ODCM_Admin\ODCM_Admin\ToPrint\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="0" windowWidth="3735" windowHeight="1410"/>
   </bookViews>
@@ -57,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,9 +222,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -258,6 +260,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -265,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1000,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1032,9 +1045,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1066,6 +1080,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1241,120 +1256,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="22.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="17" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1378,24 +1393,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ODCM_Admin/ToPrint/PendingClient.xlsx
+++ b/ODCM_Admin/ToPrint/PendingClient.xlsx
@@ -238,6 +238,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -260,9 +263,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1259,24 +1259,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="17" customWidth="1"/>
+    <col min="1" max="3" width="22.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1291,55 +1291,55 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1348,10 +1348,10 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1386,7 +1386,7 @@
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;R&amp;"Century Gothic,Regular"&amp;P</oddFooter>
+    <oddFooter>&amp;LPrepared by: Dr. Arviel D. Tolentino&amp;CDate Printed: &amp;D&amp;R&amp;"Century Gothic,Regular"&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
